--- a/data/scheduling_DNN/predict/result5.xlsx
+++ b/data/scheduling_DNN/predict/result5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         <v>1.153443098068237</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8747621774673462</v>
+        <v>0.6047618389129639</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>0.8832719326019287</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9134519696235657</v>
+        <v>0.6980226039886475</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>1.120343923568726</v>
       </c>
       <c r="V4" t="n">
-        <v>1.151865005493164</v>
+        <v>0.4223841428756714</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.9491100311279297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3978167772293091</v>
+        <v>0.3609108924865723</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.9237239360809326</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6225376129150391</v>
+        <v>0.6179987788200378</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.9247751235961914</v>
       </c>
       <c r="V7" t="n">
-        <v>0.411217212677002</v>
+        <v>0.7098118662834167</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.9463999271392822</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3849857449531555</v>
+        <v>0.3868059515953064</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8976900577545166</v>
       </c>
       <c r="V9" t="n">
-        <v>0.622368335723877</v>
+        <v>0.4914345741271973</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.899055004119873</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4939474761486053</v>
+        <v>0.4425290822982788</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.9092819690704346</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3798334896564484</v>
+        <v>0.3657307028770447</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.9274308681488037</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4945790767669678</v>
+        <v>0.4795461297035217</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.9530508518218994</v>
       </c>
       <c r="V13" t="n">
-        <v>0.933400571346283</v>
+        <v>0.4712569713592529</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.9429469108581543</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4855592250823975</v>
+        <v>0.6095789670944214</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.9495279788970947</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3958902060985565</v>
+        <v>0.4229405522346497</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.994163990020752</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4604004621505737</v>
+        <v>0.4718003869056702</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.8756430149078369</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4777912795543671</v>
+        <v>0.587807834148407</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.8962810039520264</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8458316922187805</v>
+        <v>0.6282039284706116</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.9168720245361328</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4357102513313293</v>
+        <v>0.7903261780738831</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.872960090637207</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4448032379150391</v>
+        <v>0.3786981105804443</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>0.884026050567627</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4844631552696228</v>
+        <v>0.7030863761901855</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.5440189838409424</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8853569626808167</v>
+        <v>0.4550826549530029</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5947408676147461</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6224552392959595</v>
+        <v>0.4227662682533264</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5421128273010254</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8723446130752563</v>
+        <v>0.455345094203949</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5303318500518799</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4812151789665222</v>
+        <v>0.5552331805229187</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5387139320373535</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4844738245010376</v>
+        <v>0.8878307342529297</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5212831497192383</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8476611375808716</v>
+        <v>0.4408711791038513</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.529249906539917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5469825863838196</v>
+        <v>0.4770028591156006</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5367741584777832</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4592795968055725</v>
+        <v>0.480150043964386</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5257649421691895</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4018245935440063</v>
+        <v>0.480705738067627</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.5164339542388916</v>
       </c>
       <c r="V31" t="n">
-        <v>0.864332914352417</v>
+        <v>0.689429759979248</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.6232740879058838</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6231564283370972</v>
+        <v>0.6980326771736145</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.5133988857269287</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8799707889556885</v>
+        <v>0.3611395955085754</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5330741405487061</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3975267112255096</v>
+        <v>0.7097801566123962</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.5175430774688721</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4950146079063416</v>
+        <v>0.6587436199188232</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.517164945602417</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4804553389549255</v>
+        <v>0.4005610942840576</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5153119564056396</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6230092644691467</v>
+        <v>0.6464481353759766</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.515822172164917</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4845212399959564</v>
+        <v>0.4550627470016479</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5689020156860352</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4819814562797546</v>
+        <v>0.7958468198776245</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5207960605621338</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8726626038551331</v>
+        <v>0.3609596490859985</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8580806851387024</v>
+        <v>0.4890546202659607</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.3967301845550537</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6229884028434753</v>
+        <v>0.3610076904296875</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4158449172973633</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8724636435508728</v>
+        <v>0.6981954574584961</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3887760639190674</v>
       </c>
       <c r="V44" t="n">
-        <v>1.157678604125977</v>
+        <v>0.3799396157264709</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.3917410373687744</v>
       </c>
       <c r="V45" t="n">
-        <v>1.193851590156555</v>
+        <v>0.5618018507957458</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3879590034484863</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4575903117656708</v>
+        <v>0.3859796524047852</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.3983170986175537</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8476719260215759</v>
+        <v>0.64891517162323</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.3900899887084961</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8490481376647949</v>
+        <v>0.6896145939826965</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.4043679237365723</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4049033522605896</v>
+        <v>0.5379613637924194</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.388634204864502</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4777580201625824</v>
+        <v>0.4757353663444519</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8742193579673767</v>
+        <v>0.4552754163742065</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.3972728252410889</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8954335451126099</v>
+        <v>0.5858365893363953</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3955469131469727</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4936535358428955</v>
+        <v>0.4849292635917664</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3941268920898438</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4841994047164917</v>
+        <v>0.3871904611587524</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.4272170066833496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.91734379529953</v>
+        <v>0.6077430248260498</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.3860900402069092</v>
       </c>
       <c r="V56" t="n">
-        <v>0.483609676361084</v>
+        <v>0.4214755892753601</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.4071700572967529</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4833430647850037</v>
+        <v>0.4834600687026978</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.3896307945251465</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4777194261550903</v>
+        <v>0.6046422719955444</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3943150043487549</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4915356636047363</v>
+        <v>0.4226258993148804</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.7000949382781982</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6231408715248108</v>
+        <v>0.5881173610687256</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.432642936706543</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8473148345947266</v>
+        <v>0.4805735945701599</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>1.121154069900513</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4205576777458191</v>
+        <v>0.4806921482086182</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.8743460178375244</v>
       </c>
       <c r="V63" t="n">
-        <v>0.495535284280777</v>
+        <v>0.6984093189239502</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.8658051490783691</v>
       </c>
       <c r="V64" t="n">
-        <v>0.8754969239234924</v>
+        <v>0.4833751916885376</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>0.869359016418457</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8664411902427673</v>
+        <v>0.4796501398086548</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.9087719917297363</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8645340204238892</v>
+        <v>0.3611143827438354</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8689398765563965</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4775837063789368</v>
+        <v>0.422416090965271</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.9179859161376953</v>
       </c>
       <c r="V68" t="n">
-        <v>0.379462718963623</v>
+        <v>0.8822028636932373</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.8693699836730957</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4948065280914307</v>
+        <v>0.5905375480651855</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.8722019195556641</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4005445837974548</v>
+        <v>0.4203795194625854</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.868934154510498</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4153547883033752</v>
+        <v>0.4851488471031189</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8890061378479004</v>
       </c>
       <c r="V72" t="n">
-        <v>0.495036244392395</v>
+        <v>0.36097651720047</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.870305061340332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8472725749015808</v>
+        <v>0.477519690990448</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.8672559261322021</v>
       </c>
       <c r="V74" t="n">
-        <v>1.152382254600525</v>
+        <v>0.8804707527160645</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8700699806213379</v>
       </c>
       <c r="V75" t="n">
-        <v>0.86524897813797</v>
+        <v>0.4792518615722656</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8654501438140869</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4602747559547424</v>
+        <v>0.4384209513664246</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.8937699794769287</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8439769148826599</v>
+        <v>0.4788762331008911</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.8702869415283203</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4834845364093781</v>
+        <v>0.6051912903785706</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8677799701690674</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3664713799953461</v>
+        <v>0.4554891586303711</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.9472420215606689</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4823664724826813</v>
+        <v>0.6077598333358765</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.9327538013458252</v>
       </c>
       <c r="V81" t="n">
-        <v>1.156877040863037</v>
+        <v>0.4223563671112061</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.5638480186462402</v>
       </c>
       <c r="V82" t="n">
-        <v>1.154088735580444</v>
+        <v>0.6075578927993774</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5213959217071533</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4835807681083679</v>
+        <v>0.3609561920166016</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5184769630432129</v>
       </c>
       <c r="V84" t="n">
-        <v>1.151863217353821</v>
+        <v>0.4226645827293396</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5217580795288086</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4951426982879639</v>
+        <v>0.3648877739906311</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5157489776611328</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3974013030529022</v>
+        <v>0.5379487872123718</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5259380340576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.8753786683082581</v>
+        <v>0.4411333203315735</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.5170691013336182</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3892821669578552</v>
+        <v>0.3609535694122314</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.5175609588623047</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4015409648418427</v>
+        <v>0.591393768787384</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.521183967590332</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3953551948070526</v>
+        <v>0.4226717352867126</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.5180251598358154</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3923650979995728</v>
+        <v>0.5904473066329956</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5433800220489502</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4385349154472351</v>
+        <v>0.4795900583267212</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.5224380493164062</v>
       </c>
       <c r="V93" t="n">
-        <v>1.207485437393188</v>
+        <v>0.438521683216095</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5196349620819092</v>
       </c>
       <c r="V94" t="n">
-        <v>0.8835956454277039</v>
+        <v>0.5380626916885376</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5223469734191895</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4860445261001587</v>
+        <v>0.5890090465545654</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5203309059143066</v>
       </c>
       <c r="V96" t="n">
-        <v>0.419977605342865</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.5738000869750977</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4836356341838837</v>
+        <v>0.607180655002594</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8728976845741272</v>
+        <v>0.4768378734588623</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5209400653839111</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4835014939308167</v>
+        <v>0.4036211967468262</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5182459354400635</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8719359040260315</v>
+        <v>0.6980137825012207</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V101" t="n">
-        <v>0.874832808971405</v>
+        <v>0.4844722747802734</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.4032540321350098</v>
       </c>
       <c r="V102" t="n">
-        <v>1.157474040985107</v>
+        <v>0.8822290897369385</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.3974640369415283</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4632076025009155</v>
+        <v>0.6980346441268921</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.3976988792419434</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3979174792766571</v>
+        <v>0.4923393726348877</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.4122550487518311</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4375734925270081</v>
+        <v>0.5854825973510742</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.38944411277771</v>
       </c>
       <c r="V106" t="n">
-        <v>1.152561545372009</v>
+        <v>0.3671593070030212</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3976330757141113</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4166086912155151</v>
+        <v>0.3647720217704773</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3871769905090332</v>
       </c>
       <c r="V108" t="n">
-        <v>1.154563069343567</v>
+        <v>0.4902856349945068</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.3911809921264648</v>
       </c>
       <c r="V109" t="n">
-        <v>0.88567054271698</v>
+        <v>0.4223143458366394</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.388538122177124</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4586405754089355</v>
+        <v>0.6563281416893005</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.3948462009429932</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4050311744213104</v>
+        <v>0.6980321407318115</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4100580215454102</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4834020137786865</v>
+        <v>0.5379722714424133</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3895299434661865</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8989970684051514</v>
+        <v>0.6181319952011108</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.3925120830535889</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3971336483955383</v>
+        <v>0.5887073874473572</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.417625904083252</v>
       </c>
       <c r="V115" t="n">
-        <v>1.157232880592346</v>
+        <v>0.6095840334892273</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4204376637935638</v>
+        <v>0.3609158396720886</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.3931059837341309</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3955797851085663</v>
+        <v>0.3609372973442078</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4110760688781738</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4205368161201477</v>
+        <v>0.4211761355400085</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3908309936523438</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6231391429901123</v>
+        <v>0.8805928230285645</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.4256229400634766</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3797891736030579</v>
+        <v>0.4837238192558289</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.4440429210662842</v>
       </c>
       <c r="V121" t="n">
-        <v>0.498162180185318</v>
+        <v>0.8821812868118286</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.8671259880065918</v>
       </c>
       <c r="V122" t="n">
-        <v>1.150467991828918</v>
+        <v>0.6536902785301208</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.8887209892272949</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4959736466407776</v>
+        <v>0.5580369234085083</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.8680651187896729</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6228228211402893</v>
+        <v>0.4843006730079651</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.924293041229248</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9254357814788818</v>
+        <v>0.5879279971122742</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.8812448978424072</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4946616590023041</v>
+        <v>0.4225040078163147</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.8682968616485596</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6230654120445251</v>
+        <v>0.3609153628349304</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8637440204620361</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6230002641677856</v>
+        <v>0.4554443955421448</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.9166011810302734</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4251015186309814</v>
+        <v>0.6180075407028198</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.8681149482727051</v>
       </c>
       <c r="V130" t="n">
-        <v>0.493786096572876</v>
+        <v>0.6181443929672241</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8701992034912109</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4171764850616455</v>
+        <v>0.8876227140426636</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8728101253509521</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4225522577762604</v>
+        <v>0.6077646017074585</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.9349958896636963</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3854530453681946</v>
+        <v>0.7964216470718384</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.8658528327941895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4940776228904724</v>
+        <v>0.401404857635498</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8889091014862061</v>
       </c>
       <c r="V135" t="n">
-        <v>0.901317834854126</v>
+        <v>0.5611301064491272</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8659360408782959</v>
       </c>
       <c r="V136" t="n">
-        <v>0.866100549697876</v>
+        <v>0.6075444221496582</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.9085118770599365</v>
       </c>
       <c r="V137" t="n">
-        <v>0.8867453932762146</v>
+        <v>0.475893497467041</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.8685460090637207</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4049088954925537</v>
+        <v>0.8844614028930664</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.8666300773620605</v>
       </c>
       <c r="V139" t="n">
-        <v>0.8873873949050903</v>
+        <v>0.5570175051689148</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.8716700077056885</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6905143260955811</v>
+        <v>0.5887113809585571</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8764889240264893</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3853004276752472</v>
+        <v>0.5538752675056458</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.5386559963226318</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3973090350627899</v>
+        <v>0.473851203918457</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5247409343719482</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4841735661029816</v>
+        <v>0.4844552874565125</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.5225751399993896</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5124539136886597</v>
+        <v>0.48039710521698</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5220029354095459</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4946087896823883</v>
+        <v>0.4227635264396667</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.5225028991699219</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4021778702735901</v>
+        <v>0.4029312133789062</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5472099781036377</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4507743716239929</v>
+        <v>0.6094298958778381</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5197908878326416</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8911297917366028</v>
+        <v>0.4850061535835266</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5209581851959229</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8792293071746826</v>
+        <v>0.3867952823638916</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.5238840579986572</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3974569141864777</v>
+        <v>0.3671503067016602</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.5739820003509521</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3984748125076294</v>
+        <v>0.4030694961547852</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5397231578826904</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4843453764915466</v>
+        <v>0.4223188161849976</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5232088565826416</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3732989728450775</v>
+        <v>0.4399700164794922</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5157310962677002</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4819642603397369</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.5568740367889404</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8739940524101257</v>
+        <v>0.3887149095535278</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.5757579803466797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3798188269138336</v>
+        <v>0.4802040457725525</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.5227727890014648</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4203628897666931</v>
+        <v>0.7033109068870544</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5240509510040283</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4961742758750916</v>
+        <v>0.440751314163208</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5239291191101074</v>
       </c>
       <c r="V159" t="n">
-        <v>0.8760657906532288</v>
+        <v>0.4802520871162415</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5254712104797363</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3963627815246582</v>
+        <v>0.3877466320991516</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5345959663391113</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9068502187728882</v>
+        <v>0.3609644174575806</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.3972549438476562</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8802108764648438</v>
+        <v>0.4222974181175232</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.3993558883666992</v>
       </c>
       <c r="V163" t="n">
-        <v>0.8605582714080811</v>
+        <v>0.4228395819664001</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.3915700912475586</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4932284355163574</v>
+        <v>0.5379660129547119</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.3959598541259766</v>
       </c>
       <c r="V165" t="n">
-        <v>0.368020087480545</v>
+        <v>0.6086816191673279</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.3907840251922607</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6922897100448608</v>
+        <v>0.5662949681282043</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.397007942199707</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4633587002754211</v>
+        <v>0.5379217863082886</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.3916471004486084</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4842322170734406</v>
+        <v>0.5379790663719177</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.3939988613128662</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3850841522216797</v>
+        <v>0.3666130304336548</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.3940389156341553</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4940932095050812</v>
+        <v>0.7101702690124512</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.3923470973968506</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4824125170707703</v>
+        <v>0.4212579131126404</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.3923449516296387</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4935362637042999</v>
+        <v>0.6566483378410339</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.3955531120300293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3662834167480469</v>
+        <v>0.6556221842765808</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.4331440925598145</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4860913753509521</v>
+        <v>0.438488781452179</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.3962390422821045</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4925825595855713</v>
+        <v>0.5379284620285034</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.3955960273742676</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4844208359718323</v>
+        <v>0.6106979846954346</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.396122932434082</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4947211742401123</v>
+        <v>0.8821443915367126</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.3964598178863525</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3920531868934631</v>
+        <v>0.4854723215103149</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.3940629959106445</v>
       </c>
       <c r="V179" t="n">
-        <v>0.873205840587616</v>
+        <v>0.5378779172897339</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.4558289051055908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8710516691207886</v>
+        <v>0.5378825664520264</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4228651523590088</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6229719519615173</v>
+        <v>0.4038267731666565</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.8833620548248291</v>
       </c>
       <c r="V182" t="n">
-        <v>0.9207194447517395</v>
+        <v>0.8854296207427979</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.8755478858947754</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4050328135490417</v>
+        <v>0.5562270879745483</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.9169979095458984</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4049959480762482</v>
+        <v>0.5380772948265076</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3656372129917145</v>
+        <v>0.6539028882980347</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.8756339550018311</v>
       </c>
       <c r="V186" t="n">
-        <v>0.420028418302536</v>
+        <v>0.4721607565879822</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.8836569786071777</v>
       </c>
       <c r="V187" t="n">
-        <v>1.153359532356262</v>
+        <v>0.5378709435462952</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.9283440113067627</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4955722093582153</v>
+        <v>0.6566144227981567</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8767180442810059</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8482201099395752</v>
+        <v>0.7011902928352356</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.8711369037628174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4205512404441833</v>
+        <v>0.5659052133560181</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.8779048919677734</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4050075113773346</v>
+        <v>0.4226563572883606</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.919517993927002</v>
       </c>
       <c r="V192" t="n">
-        <v>0.9003991484642029</v>
+        <v>0.6980237364768982</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.8804140090942383</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4950187802314758</v>
+        <v>0.7839377522468567</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.8698029518127441</v>
       </c>
       <c r="V194" t="n">
-        <v>0.415200263261795</v>
+        <v>0.8004910945892334</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.8719689846038818</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4962636232376099</v>
+        <v>0.6516602039337158</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.917996883392334</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4206264913082123</v>
+        <v>0.7102096080780029</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8720180988311768</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8703036904335022</v>
+        <v>0.5874905586242676</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.8734560012817383</v>
       </c>
       <c r="V198" t="n">
-        <v>0.44784015417099</v>
+        <v>0.6086897850036621</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.8730437755584717</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3924287557601929</v>
+        <v>0.3665919899940491</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.9236700534820557</v>
       </c>
       <c r="V200" t="n">
-        <v>1.208035826683044</v>
+        <v>0.4427711367607117</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>0.8841438293457031</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6228703260421753</v>
+        <v>0.4211025238037109</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5266070365905762</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8725389838218689</v>
+        <v>0.5853784084320068</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.5214660167694092</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4630531966686249</v>
+        <v>0.7962723970413208</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.5417530536651611</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5473151803016663</v>
+        <v>0.6571362614631653</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.5228371620178223</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3798454701900482</v>
+        <v>0.5172411203384399</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5441110134124756</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4633818864822388</v>
+        <v>0.4810751676559448</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5244998931884766</v>
       </c>
       <c r="V207" t="n">
-        <v>1.193295955657959</v>
+        <v>0.4223676919937134</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5188829898834229</v>
       </c>
       <c r="V208" t="n">
-        <v>0.484797477722168</v>
+        <v>0.537911593914032</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5189719200134277</v>
       </c>
       <c r="V209" t="n">
-        <v>0.9266279935836792</v>
+        <v>0.4033211469650269</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.5803229808807373</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3981253802776337</v>
+        <v>0.6894387602806091</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.535944938659668</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4852451980113983</v>
+        <v>0.4035907387733459</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.5287878513336182</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5420261025428772</v>
+        <v>0.5380850434303284</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.52211594581604</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4820407927036285</v>
+        <v>0.6281869411468506</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.526771068572998</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3831055462360382</v>
+        <v>0.590424120426178</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5894331932067871</v>
       </c>
       <c r="V215" t="n">
-        <v>0.49634650349617</v>
+        <v>0.7898924350738525</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.5496680736541748</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4631331562995911</v>
+        <v>0.5888757705688477</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5268151760101318</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4199348986148834</v>
+        <v>0.5887453556060791</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5363750457763672</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4140909612178802</v>
+        <v>0.480116069316864</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5629749298095703</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4947182536125183</v>
+        <v>0.703600287437439</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.5319931507110596</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4946672916412354</v>
+        <v>0.6240726113319397</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5279269218444824</v>
       </c>
       <c r="V221" t="n">
-        <v>1.45305335521698</v>
+        <v>0.6485797166824341</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.397244930267334</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4960721135139465</v>
+        <v>0.5606808662414551</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3915078639984131</v>
       </c>
       <c r="V223" t="n">
-        <v>0.8744826912879944</v>
+        <v>0.4870217442512512</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.3939077854156494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4958111643791199</v>
+        <v>0.7040725350379944</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.3916800022125244</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4854701161384583</v>
+        <v>0.3785778284072876</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.4328830242156982</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4023149609565735</v>
+        <v>0.4676487445831299</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.3996849060058594</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4346569180488586</v>
+        <v>0.8845577836036682</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.4040250778198242</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4823029339313507</v>
+        <v>0.4034273028373718</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.4079239368438721</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8785244822502136</v>
+        <v>0.5161032676696777</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.3933310508728027</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4823198020458221</v>
+        <v>0.7939709424972534</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.3949780464172363</v>
       </c>
       <c r="V231" t="n">
-        <v>0.385035514831543</v>
+        <v>0.3609938621520996</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.4021458625793457</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3963905274868011</v>
+        <v>0.4384316802024841</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.3998990058898926</v>
       </c>
       <c r="V233" t="n">
-        <v>0.84852534532547</v>
+        <v>0.5379694104194641</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.405724048614502</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3921510875225067</v>
+        <v>0.5692344903945923</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V235" t="n">
-        <v>0.8911617994308472</v>
+        <v>0.6487356424331665</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.39900803565979</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8875520825386047</v>
+        <v>0.4224058389663696</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.3923060894012451</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4057140052318573</v>
+        <v>0.7839659452438354</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.3889281749725342</v>
       </c>
       <c r="V238" t="n">
-        <v>0.9235522150993347</v>
+        <v>0.4765533804893494</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.3951809406280518</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4448215961456299</v>
+        <v>0.689443826675415</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.39736008644104</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4183697998523712</v>
+        <v>0.4224810004234314</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.3951489925384521</v>
       </c>
       <c r="V241" t="n">
-        <v>0.9064778685569763</v>
+        <v>0.5612205266952515</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.8929769992828369</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3969156742095947</v>
+        <v>0.7040767669677734</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.8785910606384277</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3662859499454498</v>
+        <v>0.3610464334487915</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.879249095916748</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8753474950790405</v>
+        <v>0.3866152763366699</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8834140300750732</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8727840185165405</v>
+        <v>0.5379763245582581</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.875234842300415</v>
       </c>
       <c r="V246" t="n">
-        <v>0.9313802123069763</v>
+        <v>0.4223513603210449</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.9250237941741943</v>
       </c>
       <c r="V247" t="n">
-        <v>0.431704193353653</v>
+        <v>0.7100529074668884</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8970799446105957</v>
       </c>
       <c r="V248" t="n">
-        <v>0.8727670907974243</v>
+        <v>0.6077224016189575</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.882411003112793</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4949750900268555</v>
+        <v>0.4841680526733398</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.8718051910400391</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4843085706233978</v>
+        <v>0.6976108551025391</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>1.004710912704468</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8790527582168579</v>
+        <v>0.8843103051185608</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>1.061408042907715</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4834278225898743</v>
+        <v>0.5912466049194336</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.8926548957824707</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4939556121826172</v>
+        <v>0.4425503611564636</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.8992478847503662</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5445611476898193</v>
+        <v>0.4228060841560364</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.9490199089050293</v>
       </c>
       <c r="V255" t="n">
-        <v>0.8763232231140137</v>
+        <v>0.6076244711875916</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.8883821964263916</v>
       </c>
       <c r="V256" t="n">
-        <v>0.8487643003463745</v>
+        <v>0.5379003286361694</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.8981759548187256</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6227330565452576</v>
+        <v>0.366996169090271</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.8828940391540527</v>
       </c>
       <c r="V258" t="n">
-        <v>0.8811849355697632</v>
+        <v>0.4408747553825378</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.9129691123962402</v>
       </c>
       <c r="V259" t="n">
-        <v>0.441369891166687</v>
+        <v>0.4211356043815613</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8786218166351318</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4847220182418823</v>
+        <v>0.5378978252410889</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.8955340385437012</v>
       </c>
       <c r="V261" t="n">
-        <v>0.87810218334198</v>
+        <v>0.3873438239097595</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5531089305877686</v>
       </c>
       <c r="V262" t="n">
-        <v>0.492488294839859</v>
+        <v>0.7899690866470337</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.6277599334716797</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4198061227798462</v>
+        <v>0.8805574774742126</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5312418937683105</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4957199394702911</v>
+        <v>0.5379091501235962</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5316398143768311</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3797103464603424</v>
+        <v>0.3610904812812805</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5339949131011963</v>
       </c>
       <c r="V266" t="n">
-        <v>1.156005501747131</v>
+        <v>0.6954771280288696</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5337541103363037</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4049996733665466</v>
+        <v>0.4068009853363037</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.5894861221313477</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8562750816345215</v>
+        <v>0.8854069709777832</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.547321081161499</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4203922748565674</v>
+        <v>0.6840715408325195</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.535912036895752</v>
       </c>
       <c r="V270" t="n">
-        <v>1.151296615600586</v>
+        <v>0.4054241180419922</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.526371955871582</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8644833564758301</v>
+        <v>0.5379610061645508</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.5662498474121094</v>
       </c>
       <c r="V272" t="n">
-        <v>1.073497414588928</v>
+        <v>0.3867775201797485</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5730569362640381</v>
       </c>
       <c r="V273" t="n">
-        <v>0.466922789812088</v>
+        <v>0.378571629524231</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5378789901733398</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4049059450626373</v>
+        <v>0.6077727079391479</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5280790328979492</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6226891875267029</v>
+        <v>0.4801205992698669</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5299570560455322</v>
       </c>
       <c r="V276" t="n">
-        <v>1.030967473983765</v>
+        <v>0.6865060329437256</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5287628173828125</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4021468758583069</v>
+        <v>0.4207318425178528</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4955466985702515</v>
+        <v>0.6490487456321716</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.5293171405792236</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4834548532962799</v>
+        <v>0.7033395767211914</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5236248970031738</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8486477732658386</v>
+        <v>0.5903171300888062</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5271949768066406</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6229301691055298</v>
+        <v>0.4719034433364868</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.4166510105133057</v>
       </c>
       <c r="V282" t="n">
-        <v>0.9182323813438416</v>
+        <v>0.6074541807174683</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.4005398750305176</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8497998118400574</v>
+        <v>0.4398151040077209</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.450901985168457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8724694848060608</v>
+        <v>0.7900906205177307</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.4034860134124756</v>
       </c>
       <c r="V285" t="n">
-        <v>1.15318775177002</v>
+        <v>0.5881587862968445</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.4009947776794434</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8593992590904236</v>
+        <v>0.4784874320030212</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.3992629051208496</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6036596894264221</v>
+        <v>0.8844561576843262</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.4006428718566895</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3655261397361755</v>
+        <v>0.7902021408081055</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4134471416473389</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4585118591785431</v>
+        <v>0.6490634083747864</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.4300417900085449</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4821828901767731</v>
+        <v>0.3610337376594543</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.4008779525756836</v>
       </c>
       <c r="V291" t="n">
-        <v>1.072232961654663</v>
+        <v>0.4553601741790771</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.400914192199707</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3852631747722626</v>
+        <v>0.6080566644668579</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.4005739688873291</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8852736353874207</v>
+        <v>0.8856419324874878</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.3969550132751465</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6921908855438232</v>
+        <v>0.5620260834693909</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4049199223518372</v>
+        <v>0.4868853092193604</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.3970170021057129</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4048700630664825</v>
+        <v>0.4888110160827637</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.400076150894165</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3964551687240601</v>
+        <v>0.5378856658935547</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.3999190330505371</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4840769171714783</v>
+        <v>0.4400861263275146</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.4065620899200439</v>
       </c>
       <c r="V299" t="n">
-        <v>0.9179648160934448</v>
+        <v>0.5915652513504028</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.4043889045715332</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4951522052288055</v>
+        <v>0.6058166027069092</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.400001049041748</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8471988439559937</v>
+        <v>0.6896112561225891</v>
       </c>
     </row>
     <row r="302" spans="1:22">

--- a/data/scheduling_DNN/predict/result5.xlsx
+++ b/data/scheduling_DNN/predict/result5.xlsx
@@ -564,7 +564,7 @@
         <v>1.153443098068237</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6047618389129639</v>
+        <v>0.6928392648696899</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>0.8832719326019287</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6980226039886475</v>
+        <v>0.3719484806060791</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>1.120343923568726</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4223841428756714</v>
+        <v>0.4176654517650604</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.9491100311279297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3609108924865723</v>
+        <v>0.975181519985199</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.9237239360809326</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6179987788200378</v>
+        <v>0.3471212387084961</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.9247751235961914</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7098118662834167</v>
+        <v>0.4907240867614746</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.9463999271392822</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3868059515953064</v>
+        <v>0.5248144865036011</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8976900577545166</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4914345741271973</v>
+        <v>0.708076536655426</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.899055004119873</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4425290822982788</v>
+        <v>0.6535108089447021</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.9092819690704346</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3657307028770447</v>
+        <v>0.3507513999938965</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.9274308681488037</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4795461297035217</v>
+        <v>0.6543079614639282</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.9530508518218994</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4712569713592529</v>
+        <v>0.4903136193752289</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.9429469108581543</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6095789670944214</v>
+        <v>0.8023541569709778</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.9495279788970947</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4229405522346497</v>
+        <v>0.6992434859275818</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.994163990020752</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4718003869056702</v>
+        <v>0.699232816696167</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.8756430149078369</v>
       </c>
       <c r="V17" t="n">
-        <v>0.587807834148407</v>
+        <v>0.4176275134086609</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.8962810039520264</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6282039284706116</v>
+        <v>0.5058352947235107</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.9168720245361328</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7903261780738831</v>
+        <v>0.8296502828598022</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.872960090637207</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3786981105804443</v>
+        <v>0.4176727831363678</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>0.884026050567627</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7030863761901855</v>
+        <v>0.9757455587387085</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.5440189838409424</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4550826549530029</v>
+        <v>0.6926920413970947</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5947408676147461</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4227662682533264</v>
+        <v>0.8296811580657959</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5421128273010254</v>
       </c>
       <c r="V24" t="n">
-        <v>0.455345094203949</v>
+        <v>0.4176348447799683</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5303318500518799</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5552331805229187</v>
+        <v>0.4176412224769592</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5387139320373535</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8878307342529297</v>
+        <v>0.975210964679718</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5212831497192383</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4408711791038513</v>
+        <v>0.6990503668785095</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.529249906539917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4770028591156006</v>
+        <v>0.5873388648033142</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5367741584777832</v>
       </c>
       <c r="V29" t="n">
-        <v>0.480150043964386</v>
+        <v>0.5050956606864929</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5257649421691895</v>
       </c>
       <c r="V30" t="n">
-        <v>0.480705738067627</v>
+        <v>0.5251024961471558</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.5164339542388916</v>
       </c>
       <c r="V31" t="n">
-        <v>0.689429759979248</v>
+        <v>0.3518496155738831</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.6232740879058838</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6980326771736145</v>
+        <v>0.4904178380966187</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.5133988857269287</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3611395955085754</v>
+        <v>0.6536403894424438</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5330741405487061</v>
       </c>
       <c r="V34" t="n">
-        <v>0.7097801566123962</v>
+        <v>0.4638172388076782</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.5175430774688721</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6587436199188232</v>
+        <v>0.5821697115898132</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.517164945602417</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4005610942840576</v>
+        <v>0.6516773104667664</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5153119564056396</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6464481353759766</v>
+        <v>0.5263315439224243</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.515822172164917</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4550627470016479</v>
+        <v>0.8004262447357178</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5689020156860352</v>
       </c>
       <c r="V39" t="n">
-        <v>0.7958468198776245</v>
+        <v>0.5051230192184448</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5207960605621338</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3609596490859985</v>
+        <v>0.5762007236480713</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4890546202659607</v>
+        <v>0.5050980448722839</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.3967301845550537</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3610076904296875</v>
+        <v>0.8027225732803345</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4158449172973633</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6981954574584961</v>
+        <v>0.4614459872245789</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3887760639190674</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3799396157264709</v>
+        <v>0.8339731693267822</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.3917410373687744</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5618018507957458</v>
+        <v>0.4176395535469055</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3879590034484863</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3859796524047852</v>
+        <v>0.5049243569374084</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.3983170986175537</v>
       </c>
       <c r="V47" t="n">
-        <v>0.64891517162323</v>
+        <v>0.3720975518226624</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.3900899887084961</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6896145939826965</v>
+        <v>0.4176499843597412</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.4043679237365723</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5379613637924194</v>
+        <v>0.9752137064933777</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.388634204864502</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4757353663444519</v>
+        <v>0.4611299932003021</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4552754163742065</v>
+        <v>0.8004674911499023</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.3972728252410889</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5858365893363953</v>
+        <v>0.6992341279983521</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3955469131469727</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4849292635917664</v>
+        <v>0.3720027506351471</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3941268920898438</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3871904611587524</v>
+        <v>0.653571605682373</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.4272170066833496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6077430248260498</v>
+        <v>0.4908617734909058</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.3860900402069092</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4214755892753601</v>
+        <v>0.490833193063736</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.4071700572967529</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4834600687026978</v>
+        <v>0.3794727325439453</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.3896307945251465</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6046422719955444</v>
+        <v>0.8386415839195251</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3943150043487549</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4226258993148804</v>
+        <v>0.3712720274925232</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.7000949382781982</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5881173610687256</v>
+        <v>0.5046958923339844</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.432642936706543</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4805735945701599</v>
+        <v>0.4614620208740234</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>1.121154069900513</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4806921482086182</v>
+        <v>0.3719204664230347</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.8743460178375244</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6984093189239502</v>
+        <v>0.6533820629119873</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.8658051490783691</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4833751916885376</v>
+        <v>0.3710145056247711</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>0.869359016418457</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4796501398086548</v>
+        <v>0.5826015472412109</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.9087719917297363</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3611143827438354</v>
+        <v>0.6538190245628357</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8689398765563965</v>
       </c>
       <c r="V67" t="n">
-        <v>0.422416090965271</v>
+        <v>0.3515170216560364</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.9179859161376953</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8822028636932373</v>
+        <v>0.6533793210983276</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.8693699836730957</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5905375480651855</v>
+        <v>0.5760207772254944</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.8722019195556641</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4203795194625854</v>
+        <v>0.8004398941993713</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.868934154510498</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4851488471031189</v>
+        <v>0.3470365405082703</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8890061378479004</v>
       </c>
       <c r="V72" t="n">
-        <v>0.36097651720047</v>
+        <v>0.4614622294902802</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.870305061340332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.477519690990448</v>
+        <v>0.5245877504348755</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.8672559261322021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8804707527160645</v>
+        <v>0.3789054155349731</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8700699806213379</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4792518615722656</v>
+        <v>0.4907099008560181</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8654501438140869</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4384209513664246</v>
+        <v>0.4904197454452515</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.8937699794769287</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4788762331008911</v>
+        <v>0.5050196051597595</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.8702869415283203</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6051912903785706</v>
+        <v>0.6535240411758423</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8677799701690674</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4554891586303711</v>
+        <v>0.5038111805915833</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.9472420215606689</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6077598333358765</v>
+        <v>0.9755939245223999</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.9327538013458252</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4223563671112061</v>
+        <v>0.5042588710784912</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.5638480186462402</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6075578927993774</v>
+        <v>0.5257673263549805</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5213959217071533</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3609561920166016</v>
+        <v>0.3786694407463074</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5184769630432129</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4226645827293396</v>
+        <v>0.417663037776947</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5217580795288086</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3648877739906311</v>
+        <v>0.4908333420753479</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5157489776611328</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5379487872123718</v>
+        <v>0.3720111846923828</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5259380340576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4411333203315735</v>
+        <v>0.576347291469574</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.5170691013336182</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3609535694122314</v>
+        <v>0.8414528369903564</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.5175609588623047</v>
       </c>
       <c r="V89" t="n">
-        <v>0.591393768787384</v>
+        <v>0.6992233991622925</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.521183967590332</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4226717352867126</v>
+        <v>0.5946947336196899</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.5180251598358154</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5904473066329956</v>
+        <v>0.3507855832576752</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5433800220489502</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4795900583267212</v>
+        <v>0.9760575294494629</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.5224380493164062</v>
       </c>
       <c r="V93" t="n">
-        <v>0.438521683216095</v>
+        <v>0.417632520198822</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5196349620819092</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5380626916885376</v>
+        <v>0.4897371828556061</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5223469734191895</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5890090465545654</v>
+        <v>0.6992213726043701</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5203309059143066</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.8022716045379639</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.5738000869750977</v>
       </c>
       <c r="V97" t="n">
-        <v>0.607180655002594</v>
+        <v>0.5262220501899719</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4768378734588623</v>
+        <v>0.3895606100559235</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5209400653839111</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4036211967468262</v>
+        <v>0.3507409393787384</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5182459354400635</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6980137825012207</v>
+        <v>0.8000637888908386</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4844722747802734</v>
+        <v>0.5248074531555176</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.4032540321350098</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8822290897369385</v>
+        <v>0.5052164793014526</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.3974640369415283</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6980346441268921</v>
+        <v>0.5826250314712524</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.3976988792419434</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4923393726348877</v>
+        <v>0.653493344783783</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.4122550487518311</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5854825973510742</v>
+        <v>0.655465304851532</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.38944411277771</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3671593070030212</v>
+        <v>0.3507419228553772</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3976330757141113</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3647720217704773</v>
+        <v>0.4611094295978546</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3871769905090332</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4902856349945068</v>
+        <v>0.5870838761329651</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.3911809921264648</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4223143458366394</v>
+        <v>0.5037472248077393</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.388538122177124</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6563281416893005</v>
+        <v>0.5823945999145508</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.3948462009429932</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6980321407318115</v>
+        <v>0.5258046388626099</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4100580215454102</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5379722714424133</v>
+        <v>0.6537992358207703</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3895299434661865</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6181319952011108</v>
+        <v>0.9760792851448059</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.3925120830535889</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5887073874473572</v>
+        <v>0.6546903848648071</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.417625904083252</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6095840334892273</v>
+        <v>0.8012609481811523</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3609158396720886</v>
+        <v>0.3470315337181091</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.3931059837341309</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3609372973442078</v>
+        <v>0.4175510704517365</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4110760688781738</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4211761355400085</v>
+        <v>0.5908601880073547</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3908309936523438</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8805928230285645</v>
+        <v>0.3507649004459381</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.4256229400634766</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4837238192558289</v>
+        <v>0.7035881876945496</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.4440429210662842</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8821812868118286</v>
+        <v>0.3782425820827484</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.8671259880065918</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6536902785301208</v>
+        <v>0.7082430720329285</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.8887209892272949</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5580369234085083</v>
+        <v>0.4908800721168518</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.8680651187896729</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4843006730079651</v>
+        <v>0.5248926877975464</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.924293041229248</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5879279971122742</v>
+        <v>0.5763152837753296</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.8812448978424072</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4225040078163147</v>
+        <v>0.6528818607330322</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.8682968616485596</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3609153628349304</v>
+        <v>0.3720992505550385</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8637440204620361</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4554443955421448</v>
+        <v>0.3783542811870575</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.9166011810302734</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6180075407028198</v>
+        <v>0.6529941558837891</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.8681149482727051</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6181443929672241</v>
+        <v>0.4692052006721497</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8701992034912109</v>
       </c>
       <c r="V131" t="n">
-        <v>0.8876227140426636</v>
+        <v>0.5245612859725952</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8728101253509521</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6077646017074585</v>
+        <v>0.5906542539596558</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.9349958896636963</v>
       </c>
       <c r="V133" t="n">
-        <v>0.7964216470718384</v>
+        <v>0.490329772233963</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.8658528327941895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.401404857635498</v>
+        <v>0.5908746719360352</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8889091014862061</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5611301064491272</v>
+        <v>0.5930236577987671</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8659360408782959</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6075444221496582</v>
+        <v>0.503772497177124</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.9085118770599365</v>
       </c>
       <c r="V137" t="n">
-        <v>0.475893497467041</v>
+        <v>0.4896917641162872</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.8685460090637207</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8844614028930664</v>
+        <v>0.6533357501029968</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.8666300773620605</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5570175051689148</v>
+        <v>0.3507504463195801</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.8716700077056885</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5887113809585571</v>
+        <v>0.4176262617111206</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8764889240264893</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5538752675056458</v>
+        <v>0.5762413144111633</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.5386559963226318</v>
       </c>
       <c r="V142" t="n">
-        <v>0.473851203918457</v>
+        <v>0.5044592022895813</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5247409343719482</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4844552874565125</v>
+        <v>0.3718892931938171</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.5225751399993896</v>
       </c>
       <c r="V144" t="n">
-        <v>0.48039710521698</v>
+        <v>0.8046457171440125</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5220029354095459</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4227635264396667</v>
+        <v>0.7080433368682861</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.5225028991699219</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4029312133789062</v>
+        <v>0.8028735518455505</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5472099781036377</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6094298958778381</v>
+        <v>0.9757341742515564</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5197908878326416</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4850061535835266</v>
+        <v>0.4638742208480835</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5209581851959229</v>
       </c>
       <c r="V149" t="n">
-        <v>0.3867952823638916</v>
+        <v>0.417653352022171</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.5238840579986572</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3671503067016602</v>
+        <v>0.8381872177124023</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.5739820003509521</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4030694961547852</v>
+        <v>0.8371423482894897</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5397231578826904</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4223188161849976</v>
+        <v>0.4615276753902435</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5232088565826416</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4399700164794922</v>
+        <v>0.6532728672027588</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5157310962677002</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.5256670713424683</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.5568740367889404</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3887149095535278</v>
+        <v>0.8015877604484558</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.5757579803466797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4802040457725525</v>
+        <v>0.4906497597694397</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.5227727890014648</v>
       </c>
       <c r="V157" t="n">
-        <v>0.7033109068870544</v>
+        <v>0.5762905478477478</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5240509510040283</v>
       </c>
       <c r="V158" t="n">
-        <v>0.440751314163208</v>
+        <v>0.4175129532814026</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5239291191101074</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4802520871162415</v>
+        <v>0.6538257002830505</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5254712104797363</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3877466320991516</v>
+        <v>0.3785795569419861</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5345959663391113</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3609644174575806</v>
+        <v>0.8039833903312683</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.3972549438476562</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4222974181175232</v>
+        <v>0.4175667762756348</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.3993558883666992</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4228395819664001</v>
+        <v>0.5870922207832336</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.3915700912475586</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5379660129547119</v>
+        <v>0.4634905457496643</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.3959598541259766</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6086816191673279</v>
+        <v>0.5030666589736938</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.3907840251922607</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5662949681282043</v>
+        <v>0.8045668601989746</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.397007942199707</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5379217863082886</v>
+        <v>0.6521576642990112</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.3916471004486084</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5379790663719177</v>
+        <v>0.8341045379638672</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.3939988613128662</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3666130304336548</v>
+        <v>0.5051002502441406</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.3940389156341553</v>
       </c>
       <c r="V170" t="n">
-        <v>0.7101702690124512</v>
+        <v>0.8047276735305786</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.3923470973968506</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4212579131126404</v>
+        <v>0.8337250947952271</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.3923449516296387</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6566483378410339</v>
+        <v>0.4634914994239807</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.3955531120300293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6556221842765808</v>
+        <v>0.5406032800674438</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.4331440925598145</v>
       </c>
       <c r="V174" t="n">
-        <v>0.438488781452179</v>
+        <v>0.3516814708709717</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.3962390422821045</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5379284620285034</v>
+        <v>0.4176277816295624</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.3955960273742676</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6106979846954346</v>
+        <v>0.6863111853599548</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.396122932434082</v>
       </c>
       <c r="V177" t="n">
-        <v>0.8821443915367126</v>
+        <v>0.7081183791160583</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.3964598178863525</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4854723215103149</v>
+        <v>0.6862813830375671</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.3940629959106445</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5378779172897339</v>
+        <v>0.97564297914505</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.4558289051055908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5378825664520264</v>
+        <v>0.3778701424598694</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4228651523590088</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4038267731666565</v>
+        <v>0.5045692920684814</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.8833620548248291</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8854296207427979</v>
+        <v>0.5251706838607788</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.8755478858947754</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5562270879745483</v>
+        <v>0.3783480226993561</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.9169979095458984</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5380772948265076</v>
+        <v>0.3507497906684875</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6539028882980347</v>
+        <v>0.8031194806098938</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.8756339550018311</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4721607565879822</v>
+        <v>0.5243822336196899</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.8836569786071777</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5378709435462952</v>
+        <v>0.5247950553894043</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.9283440113067627</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6566144227981567</v>
+        <v>0.490907609462738</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8767180442810059</v>
       </c>
       <c r="V189" t="n">
-        <v>0.7011902928352356</v>
+        <v>0.6535565853118896</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.8711369037628174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5659052133560181</v>
+        <v>0.4176304936408997</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.8779048919677734</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4226563572883606</v>
+        <v>0.6533396244049072</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.919517993927002</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6980237364768982</v>
+        <v>0.3507571518421173</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.8804140090942383</v>
       </c>
       <c r="V193" t="n">
-        <v>0.7839377522468567</v>
+        <v>0.8022168874740601</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.8698029518127441</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8004910945892334</v>
+        <v>0.9756271839141846</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.8719689846038818</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6516602039337158</v>
+        <v>0.4637985229492188</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.917996883392334</v>
       </c>
       <c r="V196" t="n">
-        <v>0.7102096080780029</v>
+        <v>0.3514944016933441</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8720180988311768</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5874905586242676</v>
+        <v>0.4175422191619873</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.8734560012817383</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6086897850036621</v>
+        <v>0.5247749090194702</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.8730437755584717</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3665919899940491</v>
+        <v>0.5822299122810364</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.9236700534820557</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4427711367607117</v>
+        <v>0.6927068829536438</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>0.8841438293457031</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4211025238037109</v>
+        <v>0.3507537245750427</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5266070365905762</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5853784084320068</v>
+        <v>0.4174875020980835</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.5214660167694092</v>
       </c>
       <c r="V203" t="n">
-        <v>0.7962723970413208</v>
+        <v>0.4909484088420868</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.5417530536651611</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6571362614631653</v>
+        <v>0.5051093101501465</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.5228371620178223</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5172411203384399</v>
+        <v>0.4176522493362427</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5441110134124756</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4810751676559448</v>
+        <v>0.6539149880409241</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5244998931884766</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4223676919937134</v>
+        <v>0.3721317946910858</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5188829898834229</v>
       </c>
       <c r="V208" t="n">
-        <v>0.537911593914032</v>
+        <v>0.5760191679000854</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5189719200134277</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4033211469650269</v>
+        <v>0.9751924276351929</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.5803229808807373</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6894387602806091</v>
+        <v>0.4907905161380768</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.535944938659668</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4035907387733459</v>
+        <v>0.6543192863464355</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.5287878513336182</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5380850434303284</v>
+        <v>0.4638231992721558</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.52211594581604</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6281869411468506</v>
+        <v>0.5762016177177429</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.526771068572998</v>
       </c>
       <c r="V214" t="n">
-        <v>0.590424120426178</v>
+        <v>0.801636278629303</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5894331932067871</v>
       </c>
       <c r="V215" t="n">
-        <v>0.7898924350738525</v>
+        <v>0.6538669466972351</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.5496680736541748</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5888757705688477</v>
+        <v>0.5762282013893127</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5268151760101318</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5887453556060791</v>
+        <v>0.3507598340511322</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5363750457763672</v>
       </c>
       <c r="V218" t="n">
-        <v>0.480116069316864</v>
+        <v>0.4175398349761963</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5629749298095703</v>
       </c>
       <c r="V219" t="n">
-        <v>0.703600287437439</v>
+        <v>0.3507460951805115</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.5319931507110596</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6240726113319397</v>
+        <v>0.6992238759994507</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5279269218444824</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6485797166824341</v>
+        <v>0.4615180790424347</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.397244930267334</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5606808662414551</v>
+        <v>0.4634853303432465</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3915078639984131</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4870217442512512</v>
+        <v>0.5048985481262207</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.3939077854156494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.7040725350379944</v>
+        <v>0.5761433839797974</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.3916800022125244</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3785778284072876</v>
+        <v>0.6531109213829041</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.4328830242156982</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4676487445831299</v>
+        <v>0.9755794405937195</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.3996849060058594</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8845577836036682</v>
+        <v>0.4176313579082489</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.4040250778198242</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4034273028373718</v>
+        <v>0.4615108966827393</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.4079239368438721</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5161032676696777</v>
+        <v>0.838257908821106</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.3933310508728027</v>
       </c>
       <c r="V230" t="n">
-        <v>0.7939709424972534</v>
+        <v>0.6534236073493958</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.3949780464172363</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3609938621520996</v>
+        <v>0.5036088228225708</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.4021458625793457</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4384316802024841</v>
+        <v>0.6525439023971558</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.3998990058898926</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5379694104194641</v>
+        <v>0.5054473876953125</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.405724048614502</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5692344903945923</v>
+        <v>0.4176340699195862</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6487356424331665</v>
+        <v>0.4781287908554077</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.39900803565979</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4224058389663696</v>
+        <v>0.417630136013031</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.3923060894012451</v>
       </c>
       <c r="V237" t="n">
-        <v>0.7839659452438354</v>
+        <v>0.5825173258781433</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.3889281749725342</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4765533804893494</v>
+        <v>0.4638285040855408</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.3951809406280518</v>
       </c>
       <c r="V239" t="n">
-        <v>0.689443826675415</v>
+        <v>0.8020263910293579</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.39736008644104</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4224810004234314</v>
+        <v>0.372467577457428</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.3951489925384521</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5612205266952515</v>
+        <v>0.5245010852813721</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.8929769992828369</v>
       </c>
       <c r="V242" t="n">
-        <v>0.7040767669677734</v>
+        <v>0.4903903901576996</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.8785910606384277</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3610464334487915</v>
+        <v>0.4904916286468506</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.879249095916748</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3866152763366699</v>
+        <v>0.371780127286911</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8834140300750732</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5379763245582581</v>
+        <v>0.405481219291687</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.875234842300415</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4223513603210449</v>
+        <v>0.6542560458183289</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.9250237941741943</v>
       </c>
       <c r="V247" t="n">
-        <v>0.7100529074668884</v>
+        <v>0.590633749961853</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8970799446105957</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6077224016189575</v>
+        <v>0.9755959510803223</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.882411003112793</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4841680526733398</v>
+        <v>0.800457239151001</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.8718051910400391</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6976108551025391</v>
+        <v>0.802345335483551</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>1.004710912704468</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8843103051185608</v>
+        <v>0.5947228074073792</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>1.061408042907715</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5912466049194336</v>
+        <v>0.5756250023841858</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.8926548957824707</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4425503611564636</v>
+        <v>0.524641752243042</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.8992478847503662</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4228060841560364</v>
+        <v>0.6547797918319702</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.9490199089050293</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6076244711875916</v>
+        <v>0.9755281805992126</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.8883821964263916</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5379003286361694</v>
+        <v>0.3507806360721588</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.8981759548187256</v>
       </c>
       <c r="V257" t="n">
-        <v>0.366996169090271</v>
+        <v>0.5042976140975952</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.8828940391540527</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4408747553825378</v>
+        <v>0.490370512008667</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.9129691123962402</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4211356043815613</v>
+        <v>0.3717378973960876</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8786218166351318</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5378978252410889</v>
+        <v>0.4638242721557617</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.8955340385437012</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3873438239097595</v>
+        <v>0.3783526420593262</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5531089305877686</v>
       </c>
       <c r="V262" t="n">
-        <v>0.7899690866470337</v>
+        <v>0.654336154460907</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.6277599334716797</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8805574774742126</v>
+        <v>0.3507759571075439</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5312418937683105</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5379091501235962</v>
+        <v>0.652911365032196</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5316398143768311</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3610904812812805</v>
+        <v>0.9755766987800598</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5339949131011963</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6954771280288696</v>
+        <v>0.7035837173461914</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5337541103363037</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4068009853363037</v>
+        <v>0.5247882604598999</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.5894861221313477</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8854069709777832</v>
+        <v>0.9755698442459106</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.547321081161499</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6840715408325195</v>
+        <v>0.4176599979400635</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.535912036895752</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4054241180419922</v>
+        <v>0.3887981772422791</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.526371955871582</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5379610061645508</v>
+        <v>0.5244113802909851</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.5662498474121094</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3867775201797485</v>
+        <v>0.7080770134925842</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5730569362640381</v>
       </c>
       <c r="V273" t="n">
-        <v>0.378571629524231</v>
+        <v>0.4691958427429199</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5378789901733398</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6077727079391479</v>
+        <v>0.5249706506729126</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5280790328979492</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4801205992698669</v>
+        <v>0.8341859579086304</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5299570560455322</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6865060329437256</v>
+        <v>0.6926973462104797</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5287628173828125</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4207318425178528</v>
+        <v>0.802417516708374</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6490487456321716</v>
+        <v>0.6531110405921936</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.5293171405792236</v>
       </c>
       <c r="V279" t="n">
-        <v>0.7033395767211914</v>
+        <v>0.4611244201660156</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5236248970031738</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5903171300888062</v>
+        <v>0.3507673740386963</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5271949768066406</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4719034433364868</v>
+        <v>0.3518537282943726</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.4166510105133057</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6074541807174683</v>
+        <v>0.5762090086936951</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.4005398750305176</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4398151040077209</v>
+        <v>0.4898227453231812</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.450901985168457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.7900906205177307</v>
+        <v>0.6507607698440552</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.4034860134124756</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5881587862968445</v>
+        <v>0.8046363592147827</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.4009947776794434</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4784874320030212</v>
+        <v>0.4176601767539978</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.3992629051208496</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8844561576843262</v>
+        <v>0.5245808959007263</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.4006428718566895</v>
       </c>
       <c r="V288" t="n">
-        <v>0.7902021408081055</v>
+        <v>0.3507492542266846</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4134471416473389</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6490634083747864</v>
+        <v>0.8340836763381958</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.4300417900085449</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3610337376594543</v>
+        <v>0.4906106293201447</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.4008779525756836</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4553601741790771</v>
+        <v>0.505433976650238</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.400914192199707</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6080566644668579</v>
+        <v>0.5045288801193237</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.4005739688873291</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8856419324874878</v>
+        <v>0.417652815580368</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.3969550132751465</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5620260834693909</v>
+        <v>0.6928427815437317</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4868853092193604</v>
+        <v>0.35074183344841</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.3970170021057129</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4888110160827637</v>
+        <v>0.4175451099872589</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.400076150894165</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5378856658935547</v>
+        <v>0.4903536438941956</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.3999190330505371</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4400861263275146</v>
+        <v>0.4634823501110077</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.4065620899200439</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5915652513504028</v>
+        <v>0.4638583362102509</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.4043889045715332</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6058166027069092</v>
+        <v>0.4907757639884949</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.400001049041748</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6896112561225891</v>
+        <v>0.8004976511001587</v>
       </c>
     </row>
     <row r="302" spans="1:22">
